--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.808499999999995</v>
+        <v>8.716399999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.121400000000002</v>
+        <v>5.351700000000005</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.060399999999999</v>
+        <v>5.182299999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.97589999999999</v>
+        <v>-14.17459999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.1916</v>
+        <v>-10.86639999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.41270000000003</v>
+        <v>17.54790000000001</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.594100000000001</v>
+        <v>-8.534900000000002</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.002600000000001</v>
+        <v>-8.126100000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.75449999999998</v>
+        <v>-14.75389999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.050399999999996</v>
+        <v>7.556999999999995</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.717400000000001</v>
+        <v>-8.571000000000005</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.401899999999996</v>
+        <v>-8.777099999999992</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,10 +771,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.231999999999994</v>
+        <v>9.367999999999997</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.20010000000001</v>
+        <v>-12.0203</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.14150000000001</v>
+        <v>-11.95920000000002</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.11939999999999</v>
+        <v>-12.4082</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.166300000000005</v>
+        <v>-8.124900000000006</v>
       </c>
       <c r="E22" t="n">
-        <v>16.4431</v>
+        <v>16.56100000000001</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.1738</v>
+        <v>-12.17760000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.704200000000002</v>
+        <v>6.024000000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,16 +924,16 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.436100000000003</v>
+        <v>5.346699999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.69090000000001</v>
+        <v>-11.59110000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23120000000001</v>
+        <v>17.04640000000001</v>
       </c>
     </row>
     <row r="30">
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.102299999999993</v>
+        <v>7.705599999999993</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.17570000000001</v>
+        <v>-11.80770000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.55099999999999</v>
+        <v>17.3973</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.203899999999997</v>
+        <v>-8.463999999999997</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.497899999999992</v>
+        <v>9.565699999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.4026</v>
+        <v>-12.54470000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.35429999999999</v>
+        <v>-12.53269999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.26760000000001</v>
+        <v>17.23290000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.43139999999999</v>
+        <v>-13.2354</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.75189999999999</v>
+        <v>-13.7245</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,13 +1213,13 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.945999999999994</v>
+        <v>6.180499999999996</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.56899999999999</v>
+        <v>-13.1947</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.172899999999998</v>
+        <v>-8.060999999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.39220000000002</v>
+        <v>17.47820000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.99419999999999</v>
+        <v>-13.82399999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.1007</v>
+        <v>-8.064599999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.256100000000004</v>
+        <v>6.257400000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.19400000000001</v>
+        <v>-11.96700000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.354599999999998</v>
+        <v>5.372099999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.633599999999998</v>
+        <v>5.438599999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>6.078100000000003</v>
+        <v>5.539800000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.7069</v>
+        <v>16.5977</v>
       </c>
     </row>
     <row r="61">
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.350999999999998</v>
+        <v>5.4392</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.749099999999999</v>
+        <v>5.910499999999997</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.7</v>
+        <v>-11.86510000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.9416</v>
+        <v>-11.78779999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.64110000000002</v>
+        <v>17.55150000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.24100000000002</v>
+        <v>18.38060000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.272499999999999</v>
+        <v>8.058400000000002</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.62570000000001</v>
+        <v>17.6312</v>
       </c>
     </row>
     <row r="74">
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.30519999999999</v>
+        <v>9.244499999999993</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.3232</v>
+        <v>-12.4552</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.1634</v>
+        <v>-13.34099999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.30429999999999</v>
+        <v>16.33339999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1995,16 +1995,16 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.547699999999995</v>
+        <v>5.571599999999997</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.6824</v>
+        <v>-11.44429999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.28400000000002</v>
+        <v>18.34950000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.1403</v>
+        <v>-8.037699999999999</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.7893</v>
+        <v>-12.04620000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.429099999999993</v>
+        <v>-8.671099999999996</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.866699999999998</v>
+        <v>5.740799999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.8811</v>
+        <v>16.81330000000001</v>
       </c>
     </row>
     <row r="102">
